--- a/public/data/template.xlsx
+++ b/public/data/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vietjet.sharepoint.com/vjcfiles/SSQA/16. MQA/03. Quality Control/01. Surveillance/1. Night shift report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\CascadeProjects\excel-mobile-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{9747682B-77F8-40E8-8516-08B80084E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0467462-0E90-45F6-9868-3499AFF31D69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA81ED-5BA1-4EB0-8D59-A6871D4FC80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Corrective action</t>
   </si>
   <si>
-    <t>__PowerAppsId__</t>
-  </si>
-  <si>
     <t>Check FOD</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Night serveillance</t>
   </si>
   <si>
-    <t>2mt_qrKoFf4</t>
-  </si>
-  <si>
     <t>Check drain fuel</t>
   </si>
   <si>
@@ -94,84 +88,48 @@
     <t>Night surveillance</t>
   </si>
   <si>
-    <t>GDodQtNehEM</t>
-  </si>
-  <si>
     <t>Check OWP feedback</t>
   </si>
   <si>
     <t>Ensure OWP feedback is fully recorded.</t>
   </si>
   <si>
-    <t>ws4ii3zlXhE</t>
-  </si>
-  <si>
-    <t>Check docking covers</t>
-  </si>
-  <si>
     <t>Check the condition of aircraft covering.</t>
   </si>
   <si>
     <t>Night surveillance hoặc 7day check</t>
   </si>
   <si>
-    <t>9pnnK_VRfVk</t>
-  </si>
-  <si>
     <t>Arrange work reasonably</t>
   </si>
   <si>
     <t>Assign work to avoid overlap.</t>
   </si>
   <si>
-    <t>ddGLsSgkf7k</t>
-  </si>
-  <si>
-    <t>Check cargo hold</t>
-  </si>
-  <si>
-    <t>Check for damage, leaks, and defects in the cargo hold.</t>
-  </si>
-  <si>
-    <t>bxy53z57QI0</t>
-  </si>
-  <si>
     <t>Check engine wash</t>
   </si>
   <si>
     <t>Ensure engine wash chemicals are used correctly.</t>
   </si>
   <si>
-    <t>Bnol4ohHR7s</t>
-  </si>
-  <si>
     <t>Check cabin</t>
   </si>
   <si>
     <t>Conduct a general inspection of the cabin, Lavatory, and Galley.</t>
   </si>
   <si>
-    <t>01iFBHpoFWE</t>
-  </si>
-  <si>
     <t>Check defects ATA 21, 36</t>
   </si>
   <si>
     <t>Check issues related to ATA 21, 36.</t>
   </si>
   <si>
-    <t>-5tAlDgaJ5A</t>
-  </si>
-  <si>
     <t>Check ETLB and AMOS usage</t>
   </si>
   <si>
     <t>Ensure maintenance data entry is done correctly.</t>
   </si>
   <si>
-    <t>Z_XeFYf2vpg</t>
-  </si>
-  <si>
     <t>Check engine defects</t>
   </si>
   <si>
@@ -181,45 +139,30 @@
     <t>daily/weekly/phase</t>
   </si>
   <si>
-    <t>RJ7h6eJNPnc</t>
-  </si>
-  <si>
     <t>Check fuselage paint defects</t>
   </si>
   <si>
     <t>Inspect paint on fuselage, wing, and stabilizer.</t>
   </si>
   <si>
-    <t>mtu9AyZ_gRc</t>
-  </si>
-  <si>
     <t>Check leakage and corrosion on the lower fuselage</t>
   </si>
   <si>
     <t>Check for fuel leaks and corrosion on the lower fuselage.</t>
   </si>
   <si>
-    <t>-B9RkqsvkBk</t>
-  </si>
-  <si>
     <t>Check DPI, antenna, flap, slat</t>
   </si>
   <si>
     <t>Inspect DPI, antenna, and damage to flaps/slats.</t>
   </si>
   <si>
-    <t>MOB8ArvUo90</t>
-  </si>
-  <si>
     <t>Check antenna paint</t>
   </si>
   <si>
     <t>Ensure paint does not affect the antenna.</t>
   </si>
   <si>
-    <t>T6V4W_6yM-0</t>
-  </si>
-  <si>
     <t>Preliminary check</t>
   </si>
   <si>
@@ -229,45 +172,24 @@
     <t>Phase check</t>
   </si>
   <si>
-    <t>_vUfHTpAvW8</t>
-  </si>
-  <si>
     <t>Check AC electrical equipment</t>
   </si>
   <si>
     <t>Check electrical wiring, connectors, and equipment maintenance.</t>
   </si>
   <si>
-    <t>pkqKIK3qh5o</t>
-  </si>
-  <si>
     <t>Check safety for working at height</t>
   </si>
   <si>
     <t>Ensure the use of safety harnesses when working at height.</t>
   </si>
   <si>
-    <t>jCVPpW1LYfE</t>
-  </si>
-  <si>
     <t>Check PTS application</t>
   </si>
   <si>
     <t>Verify compliance with PTS in operations.</t>
   </si>
   <si>
-    <t>yRZRcyUWd2Y</t>
-  </si>
-  <si>
-    <t>Check radio management</t>
-  </si>
-  <si>
-    <t>Check the usage and storage of radios.</t>
-  </si>
-  <si>
-    <t>qufBeFVY0fI</t>
-  </si>
-  <si>
     <t>Check GSE maintenance at VTE</t>
   </si>
   <si>
@@ -277,9 +199,6 @@
     <t>Survey at VTE</t>
   </si>
   <si>
-    <t>w87aCcpVO-0</t>
-  </si>
-  <si>
     <t>1. A649 land 23:33 nhưng đến 01:40 vẫn chưa offload xong cargo.</t>
   </si>
   <si>
@@ -506,6 +425,21 @@
   </si>
   <si>
     <t>Survey ở VTE</t>
+  </si>
+  <si>
+    <t>Check walkie talkie management</t>
+  </si>
+  <si>
+    <t>Check the usage and storage of walkie talkie.</t>
+  </si>
+  <si>
+    <t>Check cargo</t>
+  </si>
+  <si>
+    <t>Check for damage, leaks, and defects in the cargo.</t>
+  </si>
+  <si>
+    <t>Check cover A/C parking/Storage</t>
   </si>
 </sst>
 </file>
@@ -620,9 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,6 +612,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,9 +633,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventMonitoring" displayName="EventMonitoring" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventMonitoring" displayName="EventMonitoring" ref="A1:J22" totalsRowShown="0">
+  <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Target"/>
@@ -712,7 +646,6 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Note"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Corrective action"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="__PowerAppsId__"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,10 +961,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
@@ -1048,523 +981,457 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="19" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1595,126 +1462,126 @@
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1745,681 +1612,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" customHeight="1">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="G8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="75" customHeight="1">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" customHeight="1">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
         <v>45700</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="60" customHeight="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="90" customHeight="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" customHeight="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="75" customHeight="1">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="75" customHeight="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B15" s="7">
         <v>45700</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="H15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="60" customHeight="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
         <v>45700</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" customHeight="1">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" customHeight="1">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="75" customHeight="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="B19" s="7">
         <v>45700</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="60" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="90" customHeight="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
         <v>45700</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" customHeight="1">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
         <v>45700</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="75" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="H21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="75" customHeight="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
         <v>45700</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="60" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="75" customHeight="1">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="60" customHeight="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="75" customHeight="1">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="60" customHeight="1">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" customHeight="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="60" customHeight="1">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="75" customHeight="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="90" customHeight="1">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="60" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="75" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="75" customHeight="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="H23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2430,14 +2297,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2696,21 +2561,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
-    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2735,9 +2599,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
+    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/data/template.xlsx
+++ b/public/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\CascadeProjects\excel-mobile-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA81ED-5BA1-4EB0-8D59-A6871D4FC80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E34EE9-1E27-4916-9727-67A962DD889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,27 +73,18 @@
     <t>Check FOD</t>
   </si>
   <si>
-    <t>Check RAMP to prevent FOD.</t>
-  </si>
-  <si>
     <t>Night serveillance</t>
   </si>
   <si>
     <t>Check drain fuel</t>
   </si>
   <si>
-    <t>Check fuel drainage according to the checklist.</t>
-  </si>
-  <si>
     <t>Night surveillance</t>
   </si>
   <si>
     <t>Check OWP feedback</t>
   </si>
   <si>
-    <t>Ensure OWP feedback is fully recorded.</t>
-  </si>
-  <si>
     <t>Check the condition of aircraft covering.</t>
   </si>
   <si>
@@ -109,15 +100,9 @@
     <t>Check engine wash</t>
   </si>
   <si>
-    <t>Ensure engine wash chemicals are used correctly.</t>
-  </si>
-  <si>
     <t>Check cabin</t>
   </si>
   <si>
-    <t>Conduct a general inspection of the cabin, Lavatory, and Galley.</t>
-  </si>
-  <si>
     <t>Check defects ATA 21, 36</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Check engine defects</t>
   </si>
   <si>
-    <t>Check for engine failures, leaks, and loose bolts.</t>
-  </si>
-  <si>
     <t>daily/weekly/phase</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>Check PTS application</t>
   </si>
   <si>
-    <t>Verify compliance with PTS in operations.</t>
-  </si>
-  <si>
     <t>Check GSE maintenance at VTE</t>
   </si>
   <si>
@@ -436,10 +415,41 @@
     <t>Check cargo</t>
   </si>
   <si>
-    <t>Check for damage, leaks, and defects in the cargo.</t>
-  </si>
-  <si>
     <t>Check cover A/C parking/Storage</t>
+  </si>
+  <si>
+    <t>Check RAMP to prevent FOD.
+1. Quan sát việc tuân thủ kiểm tra FOD bãi đậu trước khi tàu đáp và sau khi đưa tàu đi của NVKT.
+2. Croscheck tại các bãi có bảo dưỡng lớn xem team bải dưỡng có tuân thủ quy trình ngăn ngừa FOD hay không?</t>
+  </si>
+  <si>
+    <t>Check fuel drainage according to the checklist.Random check các tàu thực hiện WKLY có được drain fuel theo WKLY checklist hay không?</t>
+  </si>
+  <si>
+    <t>Ensure OWP feedback is fully recorded.Có thể kiểm tra OWP feedback của ngày hôm trước, với các tiêu chí:
+        a. Các WO từ chối phải có lí do rõ ràng và được sự xác nhận từ MOC.
+        b. Thông tin daily check phải được điền đầy đủ.
+        c. Các WO được thực hiện phải ghi nhận số chứng chỉ của NVKT rõ ràng.</t>
+  </si>
+  <si>
+    <t>Check for damage, leaks, and defects in the cargo.
+a. Kiểm tra các dấu hiệu mục của buồng hàng - đặc biệt là khu vực quanh mép buồng hàng và cửa buồng hàng.
+        b. Kiểm tra tình trạng TDP.
+        c. Kiểm tra các tấm linning buồng hàng.</t>
+  </si>
+  <si>
+    <t>Ensure engine wash chemicals are used correctly.Chi tiết kiểm tra:
+        a. Số lượng hóa chất.
+        b. Số lượng lần rửa</t>
+  </si>
+  <si>
+    <t>Conduct a general inspection of the cabin, Lavatory, and Galley. Tăng cường random check áo phao</t>
+  </si>
+  <si>
+    <t>Check for engine failures, leaks, and loose bolts. Tăng cường kiểm tra vị trí Anti-ice access panel</t>
+  </si>
+  <si>
+    <t>Verify compliance with PTS in operations. PTS là chương trình yêu cầu các đơn vị phải hoàn thành phần việc của mình trong khoảng thời gian CỐ ĐỊNH và TỐI ƯU NHẤT đã được thống nhất bằng văn bản. Nhằm duy trì tổng thời gian dừng/nghỉ giữa các chuyến bay TỐI ƯU.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +974,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
@@ -1023,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1040,13 +1050,13 @@
       <c r="B3" s="20"/>
       <c r="C3" s="14"/>
       <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -1060,13 +1070,13 @@
       <c r="B4" s="17"/>
       <c r="C4" s="14"/>
       <c r="D4" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1080,13 +1090,13 @@
       <c r="B5" s="17"/>
       <c r="C5" s="14"/>
       <c r="D5" s="18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1100,13 +1110,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="14"/>
       <c r="D6" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -1120,13 +1130,13 @@
       <c r="B7" s="17"/>
       <c r="C7" s="14"/>
       <c r="D7" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1140,13 +1150,13 @@
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1160,13 +1170,13 @@
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1180,13 +1190,13 @@
       <c r="B10" s="20"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1200,13 +1210,13 @@
       <c r="B11" s="20"/>
       <c r="C11" s="14"/>
       <c r="D11" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1220,13 +1230,13 @@
       <c r="B12" s="20"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1240,13 +1250,13 @@
       <c r="B13" s="20"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -1260,13 +1270,13 @@
       <c r="B14" s="20"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1280,13 +1290,13 @@
       <c r="B15" s="20"/>
       <c r="C15" s="14"/>
       <c r="D15" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1300,13 +1310,13 @@
       <c r="B16" s="20"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -1320,13 +1330,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1340,13 +1350,13 @@
       <c r="B18" s="20"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1360,13 +1370,13 @@
       <c r="B19" s="17"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -1380,13 +1390,13 @@
       <c r="B20" s="20"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -1400,13 +1410,13 @@
       <c r="B21" s="20"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -1420,13 +1430,13 @@
       <c r="B22" s="17"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -1463,7 +1473,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1613,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
@@ -1621,34 +1631,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
@@ -1659,31 +1669,31 @@
         <v>45700</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1">
@@ -1694,31 +1704,31 @@
         <v>45700</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1">
@@ -1729,23 +1739,23 @@
         <v>45700</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1758,23 +1768,23 @@
         <v>45700</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1787,28 +1797,28 @@
         <v>45700</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1820,23 +1830,23 @@
         <v>45700</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1849,24 +1859,24 @@
         <v>45700</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1878,28 +1888,28 @@
         <v>45700</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1911,25 +1921,25 @@
         <v>45700</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1942,23 +1952,23 @@
         <v>45700</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1971,23 +1981,23 @@
         <v>45700</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2000,23 +2010,23 @@
         <v>45700</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2029,23 +2039,23 @@
         <v>45700</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2058,23 +2068,23 @@
         <v>45700</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2087,23 +2097,23 @@
         <v>45700</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2116,26 +2126,26 @@
         <v>45700</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -2147,23 +2157,23 @@
         <v>45700</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2176,28 +2186,28 @@
         <v>45700</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -2209,20 +2219,20 @@
         <v>45700</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2236,26 +2246,26 @@
         <v>45700</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -2267,16 +2277,16 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2297,12 +2307,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2561,20 +2573,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
+    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2599,12 +2612,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
-    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/data/template.xlsx
+++ b/public/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\CascadeProjects\excel-mobile-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E34EE9-1E27-4916-9727-67A962DD889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F503CE-A60E-4016-9684-BEB4884950E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,11 +418,6 @@
     <t>Check cover A/C parking/Storage</t>
   </si>
   <si>
-    <t>Check RAMP to prevent FOD.
-1. Quan sát việc tuân thủ kiểm tra FOD bãi đậu trước khi tàu đáp và sau khi đưa tàu đi của NVKT.
-2. Croscheck tại các bãi có bảo dưỡng lớn xem team bải dưỡng có tuân thủ quy trình ngăn ngừa FOD hay không?</t>
-  </si>
-  <si>
     <t>Check fuel drainage according to the checklist.Random check các tàu thực hiện WKLY có được drain fuel theo WKLY checklist hay không?</t>
   </si>
   <si>
@@ -450,6 +445,11 @@
   </si>
   <si>
     <t>Verify compliance with PTS in operations. PTS là chương trình yêu cầu các đơn vị phải hoàn thành phần việc của mình trong khoảng thời gian CỐ ĐỊNH và TỐI ƯU NHẤT đã được thống nhất bằng văn bản. Nhằm duy trì tổng thời gian dừng/nghỉ giữa các chuyến bay TỐI ƯU.</t>
+  </si>
+  <si>
+    <t>Check RAMP to prevent FOD.
+1. Quan sát việc tuân thủ kiểm tra FOD bãi đậu trước khi tàu đáp và sau khi đưa tàu đi của NVKT.
+2. Croscheck tại các bãi có bảo dưỡng lớn xem team bảo dưỡng có tuân thủ quy trình ngăn ngừa FOD hay không?</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>
@@ -1133,7 +1133,7 @@
         <v>124</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
@@ -1173,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
@@ -1233,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>26</v>
@@ -1393,7 +1393,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>13</v>
@@ -2307,14 +2307,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2573,21 +2571,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b556c710-a22d-49cf-9ddd-5d5b9ebc868e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="163e6cfa-b98f-4383-8908-136410dbd9eb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
-    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2612,9 +2609,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62E97845-8BFC-4372-A565-59B68E221017}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA36966-8DBC-4A7A-A938-9AE9C95376B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b556c710-a22d-49cf-9ddd-5d5b9ebc868e"/>
+    <ds:schemaRef ds:uri="163e6cfa-b98f-4383-8908-136410dbd9eb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/data/template.xlsx
+++ b/public/data/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vietjet.sharepoint.com/vjcfiles/SSQA/16. MQA/03. Quality Control/01. Surveillance/1. Night shift report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\CascadeProjects\excel-mobile-app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{9747682B-77F8-40E8-8516-08B80084E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0467462-0E90-45F6-9868-3499AFF31D69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE1B8D-AF44-4826-A038-98B9F3BB20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -70,156 +70,81 @@
     <t>Corrective action</t>
   </si>
   <si>
-    <t>__PowerAppsId__</t>
-  </si>
-  <si>
     <t>Check FOD</t>
   </si>
   <si>
-    <t>Check RAMP to prevent FOD.</t>
-  </si>
-  <si>
     <t>Night serveillance</t>
   </si>
   <si>
-    <t>2mt_qrKoFf4</t>
-  </si>
-  <si>
     <t>Check drain fuel</t>
   </si>
   <si>
-    <t>Check fuel drainage according to the checklist.</t>
-  </si>
-  <si>
     <t>Night surveillance</t>
   </si>
   <si>
-    <t>GDodQtNehEM</t>
-  </si>
-  <si>
     <t>Check OWP feedback</t>
   </si>
   <si>
-    <t>Ensure OWP feedback is fully recorded.</t>
-  </si>
-  <si>
-    <t>ws4ii3zlXhE</t>
-  </si>
-  <si>
-    <t>Check docking covers</t>
-  </si>
-  <si>
     <t>Check the condition of aircraft covering.</t>
   </si>
   <si>
     <t>Night surveillance hoặc 7day check</t>
   </si>
   <si>
-    <t>9pnnK_VRfVk</t>
-  </si>
-  <si>
     <t>Arrange work reasonably</t>
   </si>
   <si>
     <t>Assign work to avoid overlap.</t>
   </si>
   <si>
-    <t>ddGLsSgkf7k</t>
-  </si>
-  <si>
-    <t>Check cargo hold</t>
-  </si>
-  <si>
-    <t>Check for damage, leaks, and defects in the cargo hold.</t>
-  </si>
-  <si>
-    <t>bxy53z57QI0</t>
-  </si>
-  <si>
     <t>Check engine wash</t>
   </si>
   <si>
-    <t>Ensure engine wash chemicals are used correctly.</t>
-  </si>
-  <si>
-    <t>Bnol4ohHR7s</t>
-  </si>
-  <si>
     <t>Check cabin</t>
   </si>
   <si>
-    <t>Conduct a general inspection of the cabin, Lavatory, and Galley.</t>
-  </si>
-  <si>
-    <t>01iFBHpoFWE</t>
-  </si>
-  <si>
     <t>Check defects ATA 21, 36</t>
   </si>
   <si>
     <t>Check issues related to ATA 21, 36.</t>
   </si>
   <si>
-    <t>-5tAlDgaJ5A</t>
-  </si>
-  <si>
     <t>Check ETLB and AMOS usage</t>
   </si>
   <si>
     <t>Ensure maintenance data entry is done correctly.</t>
   </si>
   <si>
-    <t>Z_XeFYf2vpg</t>
-  </si>
-  <si>
     <t>Check engine defects</t>
   </si>
   <si>
-    <t>Check for engine failures, leaks, and loose bolts.</t>
-  </si>
-  <si>
     <t>daily/weekly/phase</t>
   </si>
   <si>
-    <t>RJ7h6eJNPnc</t>
-  </si>
-  <si>
     <t>Check fuselage paint defects</t>
   </si>
   <si>
     <t>Inspect paint on fuselage, wing, and stabilizer.</t>
   </si>
   <si>
-    <t>mtu9AyZ_gRc</t>
-  </si>
-  <si>
     <t>Check leakage and corrosion on the lower fuselage</t>
   </si>
   <si>
     <t>Check for fuel leaks and corrosion on the lower fuselage.</t>
   </si>
   <si>
-    <t>-B9RkqsvkBk</t>
-  </si>
-  <si>
     <t>Check DPI, antenna, flap, slat</t>
   </si>
   <si>
     <t>Inspect DPI, antenna, and damage to flaps/slats.</t>
   </si>
   <si>
-    <t>MOB8ArvUo90</t>
-  </si>
-  <si>
     <t>Check antenna paint</t>
   </si>
   <si>
     <t>Ensure paint does not affect the antenna.</t>
   </si>
   <si>
-    <t>T6V4W_6yM-0</t>
-  </si>
-  <si>
     <t>Preliminary check</t>
   </si>
   <si>
@@ -229,45 +154,21 @@
     <t>Phase check</t>
   </si>
   <si>
-    <t>_vUfHTpAvW8</t>
-  </si>
-  <si>
     <t>Check AC electrical equipment</t>
   </si>
   <si>
     <t>Check electrical wiring, connectors, and equipment maintenance.</t>
   </si>
   <si>
-    <t>pkqKIK3qh5o</t>
-  </si>
-  <si>
     <t>Check safety for working at height</t>
   </si>
   <si>
     <t>Ensure the use of safety harnesses when working at height.</t>
   </si>
   <si>
-    <t>jCVPpW1LYfE</t>
-  </si>
-  <si>
     <t>Check PTS application</t>
   </si>
   <si>
-    <t>Verify compliance with PTS in operations.</t>
-  </si>
-  <si>
-    <t>yRZRcyUWd2Y</t>
-  </si>
-  <si>
-    <t>Check radio management</t>
-  </si>
-  <si>
-    <t>Check the usage and storage of radios.</t>
-  </si>
-  <si>
-    <t>qufBeFVY0fI</t>
-  </si>
-  <si>
     <t>Check GSE maintenance at VTE</t>
   </si>
   <si>
@@ -277,9 +178,6 @@
     <t>Survey at VTE</t>
   </si>
   <si>
-    <t>w87aCcpVO-0</t>
-  </si>
-  <si>
     <t>1. A649 land 23:33 nhưng đến 01:40 vẫn chưa offload xong cargo.</t>
   </si>
   <si>
@@ -506,13 +404,61 @@
   </si>
   <si>
     <t>Survey ở VTE</t>
+  </si>
+  <si>
+    <t>Check walkie talkie management</t>
+  </si>
+  <si>
+    <t>Check the usage and storage of walkie talkie.</t>
+  </si>
+  <si>
+    <t>Check cargo</t>
+  </si>
+  <si>
+    <t>Check cover A/C parking/Storage</t>
+  </si>
+  <si>
+    <t>Kiểm tra RAMP để ngăn ngừa FOD.
+Chi tiết kiểm tra: 
+    a. Quan sát việc tuân thủ kiểm tra FOD bãi đậu trước khi tàu đáp và sau khi đưa tàu đi của NVKT.
+    b. Croscheck tại các bãi có bảo dưỡng lớn xem team bải dưỡng có tuân thủ quy trình ngăn ngừa FOD hay không?</t>
+  </si>
+  <si>
+    <t>Check fuel drainage according to the checklist. Random check các tàu thực hiện WKLY có được drain fuel theo WKLY checklist hay không?</t>
+  </si>
+  <si>
+    <t>Ensure OWP feedback is fully recorded. 
+Có thể kiểm tra OWP feedback của ngày hôm trước, với các tiêu chí:
+1. Các WO từ chối phải có lí do rõ ràng và được sự xác nhận từ MOC.
+2. Thông tin daily check phải được điền đầy đủ.
+3. Các WO được thực hiện phải ghi nhận số chứng chỉ của NVKT rõ ràng.</t>
+  </si>
+  <si>
+    <t>Check for damage, leaks, and defects in the cargo. 
+1. Kiểm tra các dấu hiệu mục của buồng hàng - đặc biệt là khu vực quanh mép buồng hàng và cửa buồng hàng.
+2. Kiểm tra tình trạng TDP.
+3. Kiểm tra các tầm linning buồng hàng.</t>
+  </si>
+  <si>
+    <t>Ensure engine wash chemicals are used correctly.
+1. Số lượng hóa chất.
+2. Số lượng lần rửa.</t>
+  </si>
+  <si>
+    <t>Conduct a general inspection of the cabin, Lavatory, and Galley. Tăng cường random check áo phao</t>
+  </si>
+  <si>
+    <t>Check for engine failures, leaks, and loose bolts. Tăng cường kiểm tra vị trí Anti-ice access panel</t>
+  </si>
+  <si>
+    <t>Verify compliance with PTS in operations.PTS là chương trình yêu cầu các đơn vị phải hoàn thành phần việc của mình trong khoảng thời gian CỐ ĐỊNH và TỐI ƯU NHẤT đã được thống nhất bằng văn bản. Nhằm duy trì tổng thời gian dừng/nghỉ giữa các chuyến bay TỐI ƯU.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +496,23 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -615,11 +578,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -681,6 +641,15 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,9 +668,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventMonitoring" displayName="EventMonitoring" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EventMonitoring" displayName="EventMonitoring" ref="A1:J22" totalsRowShown="0">
+  <autoFilter ref="A1:J22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Target"/>
@@ -712,7 +681,6 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Note"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Corrective action"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="__PowerAppsId__"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,10 +996,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
@@ -1048,523 +1016,457 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="19" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1595,126 +1497,126 @@
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1745,681 +1647,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" customHeight="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" customHeight="1">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="75" customHeight="1">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" customHeight="1">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="60" customHeight="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="90" customHeight="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="F12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" customHeight="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
         <v>45700</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="75" customHeight="1">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="75" customHeight="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="B15" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="G15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="60" customHeight="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
         <v>45700</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" customHeight="1">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" customHeight="1">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45700</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="G18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="75" customHeight="1">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
         <v>45700</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="G19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="90" customHeight="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
         <v>45700</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="60" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="H20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" customHeight="1">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
         <v>45700</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="G21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="75" customHeight="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
         <v>45700</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="75" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="G22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="75" customHeight="1">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="60" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="60" customHeight="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="75" customHeight="1">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="60" customHeight="1">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" customHeight="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="60" customHeight="1">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="H23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="75" customHeight="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="90" customHeight="1">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="60" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="75" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
-        <v>45700</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="75" customHeight="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
